--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.726361862733524</v>
+        <v>13.726361862643472</v>
       </c>
       <c r="C2">
-        <v>15.283893443281334</v>
+        <v>15.283893442963063</v>
       </c>
       <c r="D2">
-        <v>14.427541090256513</v>
+        <v>14.427541088347862</v>
       </c>
       <c r="E2">
-        <v>16.45844109688321</v>
+        <v>16.458441096549805</v>
       </c>
       <c r="F2">
-        <v>10.830900077323902</v>
+        <v>10.830900073920398</v>
       </c>
       <c r="G2">
-        <v>13.108277893126674</v>
+        <v>13.108277888288006</v>
       </c>
       <c r="H2">
-        <v>10.764953630855358</v>
+        <v>10.764953623822015</v>
       </c>
       <c r="I2">
-        <v>11.924372486426774</v>
+        <v>11.924372486611198</v>
       </c>
       <c r="J2">
-        <v>15.877818403479704</v>
+        <v>15.877818403462159</v>
       </c>
       <c r="K2">
-        <v>12.292379615635522</v>
+        <v>12.292379613404849</v>
       </c>
       <c r="L2">
-        <v>11.456915037597375</v>
+        <v>11.45691503780937</v>
       </c>
       <c r="M2">
-        <v>13.605453268285938</v>
+        <v>13.605453268563213</v>
       </c>
       <c r="N2">
-        <v>12.73868844717426</v>
+        <v>12.738688442641308</v>
       </c>
       <c r="O2">
-        <v>12.021885746251424</v>
+        <v>12.02188575120635</v>
       </c>
       <c r="P2">
-        <v>13.295558457957599</v>
+        <v>13.295558452450804</v>
       </c>
       <c r="Q2">
-        <v>12.501438493168305</v>
+        <v>12.501438491562197</v>
       </c>
       <c r="R2">
-        <v>11.142360004585891</v>
+        <v>11.142360010331798</v>
       </c>
       <c r="S2">
-        <v>17.115581887464558</v>
+        <v>17.115581887440122</v>
       </c>
       <c r="T2">
-        <v>12.608114659936351</v>
+        <v>12.608114659874387</v>
       </c>
       <c r="U2">
-        <v>14.667977057923808</v>
+        <v>14.667977054564304</v>
       </c>
       <c r="V2">
-        <v>10.314041619933779</v>
+        <v>10.314041619534347</v>
       </c>
       <c r="W2">
-        <v>9.890976888136402</v>
+        <v>9.890976866728165</v>
       </c>
       <c r="X2">
-        <v>14.091495785573461</v>
+        <v>14.091495784673935</v>
       </c>
       <c r="Y2">
-        <v>15.145294213254706</v>
+        <v>15.145294209793986</v>
       </c>
       <c r="Z2">
-        <v>14.375803184019228</v>
+        <v>14.375803179158428</v>
       </c>
       <c r="AA2">
-        <v>17.023732888777474</v>
+        <v>17.023732883689924</v>
       </c>
       <c r="AB2">
-        <v>18.130598682489804</v>
+        <v>18.13059867089904</v>
       </c>
       <c r="AC2">
-        <v>13.645977066910847</v>
+        <v>13.645977058042977</v>
       </c>
       <c r="AD2">
-        <v>18.178511350194906</v>
+        <v>18.17851135458254</v>
       </c>
       <c r="AE2">
-        <v>12.702881871247451</v>
+        <v>12.70288187072779</v>
       </c>
       <c r="AF2">
-        <v>13.72395886968205</v>
+        <v>13.723958862518359</v>
       </c>
       <c r="AG2">
-        <v>12.148474224690787</v>
+        <v>12.148474215221187</v>
       </c>
       <c r="AH2">
-        <v>12.541008375273579</v>
+        <v>12.541008370664144</v>
       </c>
       <c r="AI2">
-        <v>18.626623846120903</v>
+        <v>18.626623806608826</v>
       </c>
       <c r="AJ2">
-        <v>12.644341301175576</v>
+        <v>12.644341293246999</v>
       </c>
       <c r="AK2">
-        <v>13.068746664257807</v>
+        <v>13.068746659913423</v>
       </c>
       <c r="AL2">
-        <v>15.004063365827164</v>
+        <v>15.004063357420488</v>
       </c>
       <c r="AM2">
-        <v>13.362599979743861</v>
+        <v>13.362599958526902</v>
       </c>
       <c r="AN2">
-        <v>12.944287090454187</v>
+        <v>12.944287081014441</v>
       </c>
       <c r="AO2">
-        <v>15.314677443959027</v>
+        <v>15.31467744827038</v>
       </c>
       <c r="AP2">
-        <v>13.240285403542876</v>
+        <v>13.240285397603877</v>
       </c>
       <c r="AQ2">
-        <v>11.992186938853282</v>
+        <v>11.992186922912184</v>
       </c>
       <c r="AR2">
-        <v>16.843643490909351</v>
+        <v>16.843643491233021</v>
       </c>
       <c r="AS2">
-        <v>14.763952272825783</v>
+        <v>14.763952257194971</v>
       </c>
       <c r="AT2">
-        <v>16.929804874784416</v>
+        <v>16.929804896170602</v>
       </c>
       <c r="AU2">
-        <v>11.608204278751288</v>
+        <v>11.608204266613262</v>
       </c>
       <c r="AV2">
-        <v>13.092384218711187</v>
+        <v>13.092384225885862</v>
       </c>
       <c r="AW2">
-        <v>13.78917257725281</v>
+        <v>13.789172551195852</v>
       </c>
       <c r="AX2">
-        <v>17.568293556546656</v>
+        <v>17.568293542109505</v>
       </c>
       <c r="AY2">
-        <v>16.524302332441724</v>
+        <v>16.524302322324598</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.709966771225044</v>
+        <v>14.709966740456821</v>
       </c>
       <c r="C3">
-        <v>13.855704410348141</v>
+        <v>13.85570440853026</v>
       </c>
       <c r="D3">
-        <v>15.516687854183973</v>
+        <v>15.516687832916826</v>
       </c>
       <c r="E3">
-        <v>15.135127002009172</v>
+        <v>15.135126998290833</v>
       </c>
       <c r="F3">
-        <v>10.350992039404623</v>
+        <v>10.35099203470358</v>
       </c>
       <c r="G3">
-        <v>14.323010212855857</v>
+        <v>14.323010209039854</v>
       </c>
       <c r="H3">
-        <v>10.232043423567719</v>
+        <v>10.232043424204733</v>
       </c>
       <c r="I3">
-        <v>12.587218001122155</v>
+        <v>12.587217998452557</v>
       </c>
       <c r="J3">
-        <v>16.919000955998278</v>
+        <v>16.919000945613341</v>
       </c>
       <c r="K3">
-        <v>14.625899180768245</v>
+        <v>14.625899179557145</v>
       </c>
       <c r="L3">
-        <v>12.572208433558158</v>
+        <v>12.572208428079012</v>
       </c>
       <c r="M3">
-        <v>14.154374000030549</v>
+        <v>14.154378825228422</v>
       </c>
       <c r="N3">
-        <v>12.855681704973051</v>
+        <v>12.855681704249111</v>
       </c>
       <c r="O3">
-        <v>9.4608205298200385</v>
+        <v>9.4608205293040442</v>
       </c>
       <c r="P3">
-        <v>14.345447880237206</v>
+        <v>14.345447871461579</v>
       </c>
       <c r="Q3">
-        <v>10.899366975945966</v>
+        <v>10.899366969283859</v>
       </c>
       <c r="R3">
-        <v>10.097932989342361</v>
+        <v>10.097932967693936</v>
       </c>
       <c r="S3">
-        <v>15.123279769431941</v>
+        <v>15.123279763236097</v>
       </c>
       <c r="T3">
-        <v>12.991275944390898</v>
+        <v>12.991275939027148</v>
       </c>
       <c r="U3">
-        <v>15.350424624413318</v>
+        <v>15.350424617332536</v>
       </c>
       <c r="V3">
-        <v>10.96317977713805</v>
+        <v>10.963179776122752</v>
       </c>
       <c r="W3">
-        <v>10.839083627295665</v>
+        <v>10.839083617885132</v>
       </c>
       <c r="X3">
-        <v>12.403492594723167</v>
+        <v>12.403492591301898</v>
       </c>
       <c r="Y3">
-        <v>17.43238527818696</v>
+        <v>17.43238526740301</v>
       </c>
       <c r="Z3">
-        <v>15.471764503381468</v>
+        <v>15.47176449878765</v>
       </c>
       <c r="AA3">
-        <v>16.218548586707342</v>
+        <v>16.218548594861296</v>
       </c>
       <c r="AB3">
-        <v>16.403665342200799</v>
+        <v>16.403665340895497</v>
       </c>
       <c r="AC3">
-        <v>16.339110826502878</v>
+        <v>16.339110802250325</v>
       </c>
       <c r="AD3">
-        <v>18.548096137564936</v>
+        <v>18.548096138326716</v>
       </c>
       <c r="AE3">
-        <v>13.179219269571385</v>
+        <v>13.1792192479452</v>
       </c>
       <c r="AF3">
-        <v>15.237348513642287</v>
+        <v>15.237348499125162</v>
       </c>
       <c r="AG3">
-        <v>12.711185347465252</v>
+        <v>12.711185339288464</v>
       </c>
       <c r="AH3">
-        <v>14.715174916945632</v>
+        <v>14.715174911055778</v>
       </c>
       <c r="AI3">
-        <v>22.178259844300804</v>
+        <v>22.178259819285987</v>
       </c>
       <c r="AJ3">
-        <v>14.856300584298729</v>
+        <v>14.856300567166658</v>
       </c>
       <c r="AK3">
-        <v>14.812141642308777</v>
+        <v>14.812141608512738</v>
       </c>
       <c r="AL3">
-        <v>14.768922365183595</v>
+        <v>14.76892235203387</v>
       </c>
       <c r="AM3">
-        <v>15.074578819643822</v>
+        <v>15.074578803049086</v>
       </c>
       <c r="AN3">
-        <v>11.80433632490584</v>
+        <v>11.804336320304444</v>
       </c>
       <c r="AO3">
-        <v>16.538859711789982</v>
+        <v>16.538859671318278</v>
       </c>
       <c r="AP3">
-        <v>11.417445930146522</v>
+        <v>11.417445923264772</v>
       </c>
       <c r="AQ3">
-        <v>11.059691902427792</v>
+        <v>11.059691894565292</v>
       </c>
       <c r="AR3">
-        <v>17.39927191816038</v>
+        <v>17.399271921073144</v>
       </c>
       <c r="AS3">
-        <v>12.980351034660975</v>
+        <v>12.980351038024454</v>
       </c>
       <c r="AT3">
-        <v>16.521940274578974</v>
+        <v>16.521940256685067</v>
       </c>
       <c r="AU3">
-        <v>11.290158629729225</v>
+        <v>11.290158610053687</v>
       </c>
       <c r="AV3">
-        <v>11.971433402672471</v>
+        <v>11.971433382805062</v>
       </c>
       <c r="AW3">
-        <v>14.685511271659045</v>
+        <v>14.685511073882976</v>
       </c>
       <c r="AX3">
-        <v>15.591876388564538</v>
+        <v>15.591876340034617</v>
       </c>
       <c r="AY3">
-        <v>18.159332263668983</v>
+        <v>18.159332253711568</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.726361862643472</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>15.283893442963063</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>14.427541088347862</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16.458441096549805</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10.830900073920398</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13.108277888288006</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>10.764953623822015</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.924372486611198</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.877818403462159</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.292379613404849</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>11.45691503780937</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.605453268563213</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.738688442641308</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.02188575120635</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.295558452450804</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.501438491562197</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>11.142360010331798</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>17.115581887440122</v>
+        <v>15.847260116850443</v>
       </c>
       <c r="T2">
         <v>12.608114659874387</v>
@@ -588,55 +477,55 @@
         <v>14.375803179158428</v>
       </c>
       <c r="AA2">
-        <v>17.023732883689924</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>18.13059867089904</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>13.645977058042977</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>18.17851135458254</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>12.70288187072779</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>13.723958862518359</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>12.148474215221187</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>12.541008370664144</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>18.626623806608826</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>12.644341293246999</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>13.068746659913423</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>15.004063357420488</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>13.362599958526902</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>12.944287081014441</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>15.31467744827038</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>13.240285397603877</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>11.992186922912184</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>16.843643491233021</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>14.709966740456821</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13.85570440853026</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>15.516687832916826</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>15.135126998290833</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.35099203470358</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.323010209039854</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.232043424204733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.587217998452557</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.919000945613341</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.625899179557145</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.572208428079012</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.154378825228422</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.855681704249111</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.4608205293040442</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.345447871461579</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.899366969283859</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>10.097932967693936</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>15.123279763236097</v>
@@ -743,55 +629,55 @@
         <v>15.47176449878765</v>
       </c>
       <c r="AA3">
-        <v>16.218548594861296</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>16.403665340895497</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>16.339110802250325</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>18.548096138326716</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>13.1792192479452</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>15.237348499125162</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>12.711185339288464</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>14.715174911055778</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>22.178259819285987</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>14.856300567166658</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>14.812141608512738</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>14.76892235203387</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>15.074578803049086</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>11.804336320304444</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>16.538859671318278</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>11.417445923264772</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>11.059691894565292</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>17.399271921073144</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.726361862733524</v>
+        <v>12.02188575120635</v>
       </c>
       <c r="C2">
-        <v>14.779851360975515</v>
+        <v>11.142360010331798</v>
       </c>
       <c r="D2">
-        <v>14.427541090256513</v>
+        <v>12.944287081014441</v>
       </c>
       <c r="E2">
-        <v>16.45844109688321</v>
+        <v>11.992186922912184</v>
       </c>
       <c r="F2">
         <v>10.830900077323902</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.709966771225044</v>
+        <v>10.818102188479116</v>
       </c>
       <c r="C3">
-        <v>13.855704410348141</v>
+        <v>10.097932967693936</v>
       </c>
       <c r="D3">
-        <v>15.516687854183973</v>
+        <v>12.20806682471637</v>
       </c>
       <c r="E3">
-        <v>15.135127002009172</v>
+        <v>11.142287735105581</v>
       </c>
       <c r="F3">
         <v>10.350992039404623</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.726361862733524</v>
+        <v>12.600043675037883</v>
       </c>
       <c r="C2">
-        <v>14.779851360975515</v>
+        <v>12.02188575120635</v>
       </c>
       <c r="D2">
-        <v>14.427541090256513</v>
+        <v>13.362599958526902</v>
       </c>
       <c r="E2">
-        <v>16.45844109688321</v>
+        <v>12.944287081014441</v>
       </c>
       <c r="F2">
         <v>10.830900077323902</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.709966771225044</v>
+        <v>12.855681704249111</v>
       </c>
       <c r="C3">
-        <v>13.855704410348141</v>
+        <v>10.818102188479116</v>
       </c>
       <c r="D3">
-        <v>15.516687854183973</v>
+        <v>15.074578803049086</v>
       </c>
       <c r="E3">
-        <v>16.369784810676435</v>
+        <v>12.20806682471637</v>
       </c>
       <c r="F3">
         <v>10.350992039404623</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.726361862643472</v>
+      </c>
+      <c r="C2">
+        <v>14.779851362645823</v>
+      </c>
+      <c r="D2">
+        <v>14.427541088347862</v>
+      </c>
+      <c r="E2">
+        <v>16.458441096549805</v>
+      </c>
+      <c r="F2">
+        <v>10.830900073920398</v>
+      </c>
+      <c r="G2">
+        <v>14.049958754628763</v>
+      </c>
+      <c r="H2">
+        <v>10.764953623822015</v>
+      </c>
+      <c r="I2">
+        <v>12.600324209026425</v>
+      </c>
+      <c r="J2">
+        <v>15.877818403462159</v>
+      </c>
+      <c r="K2">
+        <v>12.292379613404849</v>
+      </c>
+      <c r="L2">
+        <v>11.955305363598589</v>
+      </c>
+      <c r="M2">
+        <v>14.949577025223219</v>
+      </c>
+      <c r="N2">
         <v>12.600043675037883</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>12.02188575120635</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>13.616541414723359</v>
+      </c>
+      <c r="Q2">
+        <v>12.501438491562197</v>
+      </c>
+      <c r="R2">
+        <v>11.142360010331798</v>
+      </c>
+      <c r="T2">
+        <v>11.985020011370491</v>
+      </c>
+      <c r="U2">
+        <v>14.667977054564304</v>
+      </c>
+      <c r="V2">
+        <v>10.985278682193007</v>
+      </c>
+      <c r="W2">
+        <v>9.890976866728165</v>
+      </c>
+      <c r="X2">
+        <v>14.091495784673935</v>
+      </c>
+      <c r="Y2">
+        <v>15.145294209793986</v>
+      </c>
+      <c r="Z2">
+        <v>14.375803179158428</v>
+      </c>
+      <c r="AA2">
+        <v>17.023732883689924</v>
+      </c>
+      <c r="AB2">
+        <v>18.13059867089904</v>
+      </c>
+      <c r="AC2">
+        <v>13.645977058042977</v>
+      </c>
+      <c r="AD2">
+        <v>18.17851135458254</v>
+      </c>
+      <c r="AE2">
+        <v>12.70288187072779</v>
+      </c>
+      <c r="AF2">
+        <v>13.723958862518359</v>
+      </c>
+      <c r="AG2">
+        <v>12.148474215221187</v>
+      </c>
+      <c r="AH2">
+        <v>12.541008370664144</v>
+      </c>
+      <c r="AI2">
+        <v>18.626623806608826</v>
+      </c>
+      <c r="AJ2">
+        <v>12.644341293246999</v>
+      </c>
+      <c r="AK2">
+        <v>13.068746659913423</v>
+      </c>
+      <c r="AL2">
+        <v>15.004063357420488</v>
+      </c>
+      <c r="AM2">
         <v>13.362599958526902</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>12.944287081014441</v>
       </c>
-      <c r="F2">
-        <v>10.830900077323902</v>
-      </c>
-      <c r="G2">
-        <v>14.049958768815602</v>
-      </c>
-      <c r="H2">
-        <v>10.764953630855358</v>
-      </c>
-      <c r="I2">
-        <v>12.600324207568853</v>
-      </c>
-      <c r="J2">
-        <v>15.877818403479704</v>
-      </c>
-      <c r="K2">
-        <v>12.292379615635522</v>
-      </c>
-      <c r="L2">
-        <v>11.955305348933349</v>
-      </c>
-      <c r="M2">
-        <v>14.94957702559773</v>
-      </c>
-      <c r="N2">
-        <v>12.600043681797187</v>
-      </c>
-      <c r="O2">
-        <v>12.021885746251424</v>
-      </c>
-      <c r="P2">
-        <v>13.61654142349013</v>
-      </c>
-      <c r="Q2">
-        <v>12.501438493168305</v>
-      </c>
-      <c r="R2">
-        <v>11.142360004585891</v>
-      </c>
-      <c r="T2">
-        <v>11.985020010876951</v>
-      </c>
-      <c r="U2">
-        <v>14.667977057923808</v>
-      </c>
-      <c r="V2">
-        <v>10.985278683905793</v>
-      </c>
-      <c r="W2">
-        <v>9.890976888136402</v>
-      </c>
-      <c r="X2">
-        <v>14.091495785573461</v>
-      </c>
-      <c r="Y2">
-        <v>15.145294213254706</v>
-      </c>
-      <c r="Z2">
-        <v>14.375803184019228</v>
-      </c>
-      <c r="AA2">
-        <v>17.023732888777474</v>
-      </c>
-      <c r="AB2">
-        <v>18.130598682489804</v>
-      </c>
-      <c r="AC2">
-        <v>13.645977066910847</v>
-      </c>
-      <c r="AD2">
-        <v>18.178511350194906</v>
-      </c>
-      <c r="AE2">
-        <v>12.702881871247451</v>
-      </c>
-      <c r="AF2">
-        <v>13.72395886968205</v>
-      </c>
-      <c r="AG2">
-        <v>12.148474224690787</v>
-      </c>
-      <c r="AH2">
-        <v>12.541008375273579</v>
-      </c>
-      <c r="AI2">
-        <v>18.626623846120903</v>
-      </c>
-      <c r="AJ2">
-        <v>12.644341301175576</v>
-      </c>
-      <c r="AK2">
-        <v>13.068746664257807</v>
-      </c>
-      <c r="AL2">
-        <v>15.004063365827164</v>
-      </c>
-      <c r="AM2">
-        <v>13.362599979743861</v>
-      </c>
-      <c r="AN2">
-        <v>12.944287090454187</v>
-      </c>
       <c r="AO2">
-        <v>15.314677443959027</v>
+        <v>15.31467744827038</v>
       </c>
       <c r="AP2">
-        <v>13.666626267093097</v>
+        <v>13.666626259279893</v>
       </c>
       <c r="AQ2">
-        <v>11.992186938853282</v>
+        <v>11.992186922912184</v>
       </c>
       <c r="AR2">
-        <v>16.843643490909351</v>
+        <v>16.843643491233021</v>
       </c>
       <c r="AS2">
-        <v>14.763952272825783</v>
+        <v>14.763952257194971</v>
       </c>
       <c r="AT2">
-        <v>16.929804874784416</v>
+        <v>16.929804896170602</v>
       </c>
       <c r="AU2">
-        <v>10.387823271643722</v>
+        <v>10.387823244548924</v>
       </c>
       <c r="AV2">
-        <v>13.092384218711187</v>
+        <v>13.092384225885862</v>
       </c>
       <c r="AW2">
-        <v>13.78917257725281</v>
+        <v>13.789172551195852</v>
       </c>
       <c r="AX2">
-        <v>17.568293556546656</v>
+        <v>17.568293542109505</v>
       </c>
       <c r="AY2">
-        <v>16.524302332441724</v>
+        <v>16.524302322324598</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>14.709966740456821</v>
+      </c>
+      <c r="C3">
+        <v>13.85570440853026</v>
+      </c>
+      <c r="D3">
+        <v>15.516687832916826</v>
+      </c>
+      <c r="E3">
+        <v>16.369784808083697</v>
+      </c>
+      <c r="F3">
+        <v>10.35099203470358</v>
+      </c>
+      <c r="G3">
+        <v>14.323010209039854</v>
+      </c>
+      <c r="H3">
+        <v>10.232043424204733</v>
+      </c>
+      <c r="I3">
+        <v>12.587217998452557</v>
+      </c>
+      <c r="J3">
+        <v>16.919000945613341</v>
+      </c>
+      <c r="K3">
+        <v>14.400310975098776</v>
+      </c>
+      <c r="L3">
+        <v>12.572208428079012</v>
+      </c>
+      <c r="M3">
+        <v>13.487261155262379</v>
+      </c>
+      <c r="N3">
         <v>12.855681704249111</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>10.818102188479116</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>14.345447871461579</v>
+      </c>
+      <c r="Q3">
+        <v>10.899366969283859</v>
+      </c>
+      <c r="R3">
+        <v>10.097932967693936</v>
+      </c>
+      <c r="S3">
+        <v>15.123279763236097</v>
+      </c>
+      <c r="T3">
+        <v>12.991275939027148</v>
+      </c>
+      <c r="U3">
+        <v>15.350424617332536</v>
+      </c>
+      <c r="V3">
+        <v>11.333004742629443</v>
+      </c>
+      <c r="W3">
+        <v>10.845448509589181</v>
+      </c>
+      <c r="X3">
+        <v>12.403492591301898</v>
+      </c>
+      <c r="Y3">
+        <v>17.43238526740301</v>
+      </c>
+      <c r="Z3">
+        <v>15.47176449878765</v>
+      </c>
+      <c r="AA3">
+        <v>16.218548594861296</v>
+      </c>
+      <c r="AB3">
+        <v>16.403665340895497</v>
+      </c>
+      <c r="AC3">
+        <v>16.339110802250325</v>
+      </c>
+      <c r="AD3">
+        <v>18.548096138326716</v>
+      </c>
+      <c r="AE3">
+        <v>13.1792192479452</v>
+      </c>
+      <c r="AF3">
+        <v>15.237348499125162</v>
+      </c>
+      <c r="AG3">
+        <v>12.711185339288464</v>
+      </c>
+      <c r="AH3">
+        <v>14.715174911055778</v>
+      </c>
+      <c r="AI3">
+        <v>17.11426466029463</v>
+      </c>
+      <c r="AJ3">
+        <v>14.856300567166658</v>
+      </c>
+      <c r="AK3">
+        <v>14.812141608512738</v>
+      </c>
+      <c r="AL3">
+        <v>14.76892235203387</v>
+      </c>
+      <c r="AM3">
         <v>15.074578803049086</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>12.20806682471637</v>
       </c>
-      <c r="F3">
-        <v>10.350992039404623</v>
-      </c>
-      <c r="G3">
-        <v>14.323010212855857</v>
-      </c>
-      <c r="H3">
-        <v>10.232043423567719</v>
-      </c>
-      <c r="I3">
-        <v>12.587218001122155</v>
-      </c>
-      <c r="J3">
-        <v>16.919000955998278</v>
-      </c>
-      <c r="K3">
-        <v>14.400310975618016</v>
-      </c>
-      <c r="L3">
-        <v>12.572208433558158</v>
-      </c>
-      <c r="M3">
-        <v>13.487298291587807</v>
-      </c>
-      <c r="N3">
-        <v>12.855681704973051</v>
-      </c>
-      <c r="O3">
-        <v>10.818102188911309</v>
-      </c>
-      <c r="P3">
-        <v>14.345447880237206</v>
-      </c>
-      <c r="Q3">
-        <v>10.899366975945966</v>
-      </c>
-      <c r="R3">
-        <v>10.097932989342361</v>
-      </c>
-      <c r="S3">
-        <v>15.123279769431941</v>
-      </c>
-      <c r="T3">
-        <v>12.991275944390898</v>
-      </c>
-      <c r="U3">
-        <v>15.350424624413318</v>
-      </c>
-      <c r="V3">
-        <v>11.333004738864217</v>
-      </c>
-      <c r="W3">
-        <v>10.845448510561146</v>
-      </c>
-      <c r="X3">
-        <v>12.403492594723167</v>
-      </c>
-      <c r="Y3">
-        <v>17.43238527818696</v>
-      </c>
-      <c r="Z3">
-        <v>15.471764503381468</v>
-      </c>
-      <c r="AA3">
-        <v>16.218548586707342</v>
-      </c>
-      <c r="AB3">
-        <v>16.403665342200799</v>
-      </c>
-      <c r="AC3">
-        <v>16.339110826502878</v>
-      </c>
-      <c r="AD3">
-        <v>18.548096137564936</v>
-      </c>
-      <c r="AE3">
-        <v>13.179219269571385</v>
-      </c>
-      <c r="AF3">
-        <v>15.237348513642287</v>
-      </c>
-      <c r="AG3">
-        <v>12.711185347465252</v>
-      </c>
-      <c r="AH3">
-        <v>14.715174916945632</v>
-      </c>
-      <c r="AI3">
-        <v>17.114264708221665</v>
-      </c>
-      <c r="AJ3">
-        <v>14.856300584298729</v>
-      </c>
-      <c r="AK3">
-        <v>14.812141642308777</v>
-      </c>
-      <c r="AL3">
-        <v>14.768922365183595</v>
-      </c>
-      <c r="AM3">
-        <v>15.074578819643822</v>
-      </c>
-      <c r="AN3">
-        <v>12.208066825896461</v>
-      </c>
       <c r="AO3">
-        <v>16.538859711789982</v>
+        <v>16.538859671318278</v>
       </c>
       <c r="AP3">
-        <v>11.417445930146522</v>
+        <v>11.417445923264772</v>
       </c>
       <c r="AQ3">
-        <v>11.142287740351664</v>
+        <v>11.142287735105581</v>
       </c>
       <c r="AR3">
-        <v>17.39927191816038</v>
+        <v>17.399271921073144</v>
       </c>
       <c r="AS3">
-        <v>12.980351034660975</v>
+        <v>12.980351038024454</v>
       </c>
       <c r="AT3">
-        <v>16.521940274578974</v>
+        <v>16.521940256685067</v>
       </c>
       <c r="AU3">
-        <v>11.534339989940834</v>
+        <v>11.534339990728734</v>
       </c>
       <c r="AV3">
-        <v>11.971433402672471</v>
+        <v>11.971433382805062</v>
       </c>
       <c r="AW3">
-        <v>14.685511271659045</v>
+        <v>14.685511073882976</v>
       </c>
       <c r="AX3">
-        <v>15.591876388564538</v>
+        <v>15.591876340034617</v>
       </c>
       <c r="AY3">
-        <v>18.159332263668983</v>
+        <v>18.159332253711568</v>
       </c>
     </row>
   </sheetData>
